--- a/2_specs/domain/dd_job.xlsx
+++ b/2_specs/domain/dd_job.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360CloudUI\Cache\1333240703\studio\km.pony\2_specs\domain\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="20730" windowHeight="11610"/>
+    <workbookView minimized="1" xWindow="240" yWindow="345" windowWidth="20730" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Job" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <definedName name="DataType">meta!$E$5:$E$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Job!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>胡毅斌</author>
   </authors>
   <commentList>
-    <comment ref="M24" authorId="0">
+    <comment ref="M24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1101,12 +1106,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1148,7 +1156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1183,7 +1191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1395,10 +1403,10 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
